--- a/src/test/java/dataEngine/DataEngine.xlsx
+++ b/src/test/java/dataEngine/DataEngine.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="168">
   <si>
     <t>Test Case ID</t>
   </si>
